--- a/Unity_Portfolio/Assets/08.Tables/SkillTable.xlsx
+++ b/Unity_Portfolio/Assets/08.Tables/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\Unity_Portfolio\Unity_Portfolio\Assets\08.Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0159A-CA97-44C2-BEDE-560B4A27AB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACC8A4-5562-42C8-90B6-ABDB454D904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="3660" yWindow="2250" windowWidth="28800" windowHeight="18255" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,12 +143,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,14 +176,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,48 +522,48 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Unity_Portfolio/Assets/08.Tables/SkillTable.xlsx
+++ b/Unity_Portfolio/Assets/08.Tables/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\Unity_Portfolio\Unity_Portfolio\Assets\08.Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACC8A4-5562-42C8-90B6-ABDB454D904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE3835F-196A-40F6-98E6-9F84BD63C2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2250" windowWidth="28800" windowHeight="18255" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="-28800" yWindow="2730" windowWidth="28770" windowHeight="15450" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
